--- a/pred_ohlcv/54_21/2019-10-26 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 FZZ ohlcv.xlsx
@@ -3070,7 +3070,7 @@
         <v>-195002668.2482356</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-195002668.2482356</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-195129302.7110355</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-195129302.7110355</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-195336472.7590356</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-195582985.9469356</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-194903431.2997356</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-194903431.2997356</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-194817996.4756356</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-194834874.4531356</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-195407409.5799356</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-195317268.9766355</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-195080596.7215577</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-195118508.4957577</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-196642787.8719577</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-196621400.5157355</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-196449587.8661355</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-196331789.240211</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-196337552.178311</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-196337577.178311</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-187179424.6576466</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-185293715.6131591</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-185783587.4441591</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-185957344.9424559</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-186501238.1871564</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-186734362.3226564</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-186836709.4845152</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-187276038.3778152</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-187656748.8179392</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-188233609.4194391</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-189596957.39038</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-189735878.7402955</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-189662958.3509955</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-189662893.3509955</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-189493615.7498347</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-188890752.8033966</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-188136622.2621029</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-188031204.6827029</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-187952056.7520029</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-187952056.7520029</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-187117982.7929029</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-188691160.6423029</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-188572616.6619029</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-188575414.4960029</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-188631393.7165029</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-188797540.3029029</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-189312288.8380029</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-190329299.741099</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-190329359.741099</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-189877605.222999</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-189877605.222999</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-189877595.222999</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-190018749.585599</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-189469817.3233709</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-189478328.8277709</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-189478328.8277709</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-189484443.5112709</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-188987437.289344</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-188987437.289344</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-188987437.289344</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-189064277.144444</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-189368049.589144</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 FZZ ohlcv.xlsx
@@ -3044,7 +3044,7 @@
         <v>-195001968.1113355</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-195002668.2482356</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-195002668.2482356</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-195129302.7110355</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-195129302.7110355</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-195336472.7590356</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-195582985.9469356</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-194903431.2997356</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-194903431.2997356</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-194817996.4756356</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-194834874.4531356</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-195407409.5799356</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-195317268.9766355</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-195080596.7215577</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-195118508.4957577</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-196642787.8719577</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-196621400.5157355</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-196449587.8661355</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-196331789.240211</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-196337552.178311</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-196337577.178311</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-196337577.178311</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-196406834.2321109</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-196415054.302011</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-196435205.019911</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-187179424.6576466</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-185293715.6131591</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-185957344.9424559</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-186501238.1871564</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-186734362.3226564</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-186836709.4845152</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-189596957.39038</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-189735878.7402955</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-189662958.3509955</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-189662893.3509955</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-189493615.7498347</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-188890752.8033966</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-188136622.2621029</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-188031204.6827029</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-187952056.7520029</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-187952056.7520029</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-187117982.7929029</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-188691160.6423029</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-188572616.6619029</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-188575414.4960029</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-188631393.7165029</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-188797540.3029029</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-189312288.8380029</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-190329299.741099</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-190329359.741099</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-189877605.222999</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-189877605.222999</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-189877595.222999</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-190018749.585599</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-189469817.3233709</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-189478328.8277709</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-189478328.8277709</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-189484443.5112709</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-188987437.289344</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-188987437.289344</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-188987437.289344</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-189064277.144444</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-189368049.589144</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
